--- a/xlslist/F1_other_class.xlsx
+++ b/xlslist/F1_other_class.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -520,19 +520,19 @@
         <v>215</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5805340223944875</v>
+        <v>0.6442189698003652</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5642404107520387</v>
+        <v>0.5644820295983086</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5582999198075381</v>
+        <v>0.5734310289901243</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6463729226621036</v>
+        <v>0.594800671811728</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7962372145342297</v>
+        <v>0.6976744186046512</v>
       </c>
     </row>
     <row r="4">
@@ -551,19 +551,19 @@
         <v>168</v>
       </c>
       <c r="E4" t="n">
-        <v>0.632401888994181</v>
+        <v>0.6390024191494781</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5731792717086835</v>
+        <v>0.549719887955182</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5163398692810458</v>
+        <v>0.4723707664884136</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5885648376997858</v>
+        <v>0.5569973087274126</v>
       </c>
       <c r="I4" t="n">
-        <v>0.679725503254915</v>
+        <v>0.6939988116458705</v>
       </c>
     </row>
     <row r="5">
@@ -582,19 +582,19 @@
         <v>242</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3024048523370281</v>
+        <v>0.3009777818319792</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1714900045748088</v>
+        <v>0.2615013127420451</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1600701393717689</v>
+        <v>0.1246629659000793</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1870643102601865</v>
+        <v>0.2578131926585535</v>
       </c>
       <c r="I5" t="n">
-        <v>0.429096676519357</v>
+        <v>0.413692221756738</v>
       </c>
     </row>
     <row r="6">
@@ -613,19 +613,19 @@
         <v>219</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3242841108855908</v>
+        <v>0.339784398607928</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2219209836726467</v>
+        <v>0.2293203637841971</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1500688916105327</v>
+        <v>0.1558665066817241</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1842500167481744</v>
+        <v>0.1732597908240201</v>
       </c>
       <c r="I6" t="n">
-        <v>0.419586284927194</v>
+        <v>0.3726123163042667</v>
       </c>
     </row>
     <row r="7">
@@ -644,22 +644,22 @@
         <v>213</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2324178728248496</v>
+        <v>0.251218161683278</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08517513993883087</v>
+        <v>0.1197879962414846</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0525201581519878</v>
+        <v>0.06398330351818723</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03969931876908621</v>
+        <v>0.02900982977703189</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2372580003975353</v>
+        <v>0.2389087656529517</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>